--- a/vim快捷键.xlsx
+++ b/vim快捷键.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
   <si>
     <t>&lt;leader&gt;th</t>
   </si>
@@ -291,29 +291,23 @@
     <t>&lt;leader&gt;sv</t>
   </si>
   <si>
-    <t>&lt;leader&gt;&lt;space&gt;</t>
-  </si>
-  <si>
-    <t>去除空白space</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>easy-align[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速对齐</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>theme[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主题</t>
     </r>
     <r>
       <rPr>
@@ -333,16 +327,16 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>multiple-cursors[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多光标操作</t>
+      <t> syntastic[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语法检查</t>
     </r>
     <r>
       <rPr>
@@ -357,21 +351,53 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>expand-region[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>区域选中</t>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语法检查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>surround &amp; repeat[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对符号编辑</t>
     </r>
     <r>
       <rPr>
@@ -384,296 +410,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a=        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对齐等号表达</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl+m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选中一个</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">v </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增加选中范围</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a:        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对齐冒号表达式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(json/map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl+p </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放弃一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回到上一个</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">V </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少选中范围</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"># </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认左对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl+x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳过当前选中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选中下一个</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t> quickrun[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速执行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a&lt;space&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首个空格对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">esc    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退出</t>
-    </r>
+    <t>solarized</t>
   </si>
   <si>
     <r>
@@ -683,7 +420,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>映射</t>
+      <t>配置绑定了</t>
     </r>
     <r>
       <rPr>
@@ -692,7 +429,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;r</t>
+      <t>&lt;leader&gt;s</t>
     </r>
     <r>
       <rPr>
@@ -701,7 +438,36 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>以及</t>
+      <t>打开错误列表面板</t>
+    </r>
+  </si>
+  <si>
+    <t>syntastic</t>
+  </si>
+  <si>
+    <t>m-surround</t>
+  </si>
+  <si>
+    <t>syntax enable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要对应安装外部依赖, 例如</t>
     </r>
     <r>
       <rPr>
@@ -710,7 +476,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>F10</t>
+      <t>pyflakes</t>
     </r>
     <r>
       <rPr>
@@ -719,32 +485,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>快捷键</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a2&lt;space&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第二个空格对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>选中后, 可以进行增删替换</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -753,7 +494,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>a/c/x</t>
+      <t>pep8</t>
     </r>
     <r>
       <rPr>
@@ -762,67 +503,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>等</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>trailing-whitespace[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行尾空格处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a-&lt;space&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倒数第一个空格对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绑定</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -831,7 +512,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;space&gt;</t>
+      <t>jshint</t>
     </r>
     <r>
       <rPr>
@@ -840,105 +521,127 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>为快捷键, 一键去除所有行尾空格</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a-2&lt;space&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倒数第二个空格对齐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t> syntastic[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语法检查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>closetag[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成对标签补全</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">,a*&lt;space&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所有空格依次对齐</t>
+      <t>等等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动补全与代码片段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>替换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cs"'</t>
+    </r>
+  </si>
+  <si>
+    <t>快速给词加环绕符号,例如单引号/双引号/括号/成对标签等</t>
+  </si>
+  <si>
+    <t>set background=dark</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:Errors </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示错误面板</t>
+    </r>
+  </si>
+  <si>
+    <t>两大效率神器</t>
+  </si>
+  <si>
+    <t>"Hello world!" -&gt; 'Hello world!'</t>
+  </si>
+  <si>
+    <t>vim-repeat</t>
+  </si>
+  <si>
+    <t>colorscheme solarized</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:lnext  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到下一个错误</t>
     </r>
   </si>
   <si>
@@ -949,7 +652,16 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>配置绑定了</t>
+      <t>重复一个插件的操作, 支持surround.vim, 通过 surround 操作之后的行为,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -958,7 +670,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;s</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -967,20 +679,37 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>打开错误列表面板</t>
-    </r>
-  </si>
-  <si>
-    <t>被动技能, 自动补全</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
+      <t>号重复</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:solarized_termtrans=1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:lprevious </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到上一个错误</t>
+    </r>
+  </si>
+  <si>
+    <t>YCM</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"># </t>
     </r>
     <r>
@@ -990,8 +719,144 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>右对齐</t>
-    </r>
+      <t>替换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(t=tag): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cst"</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:solarized_contrast="normal"</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  -&gt; "abc"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gundo[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时光机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:solarized_visibility="normal"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>delimitmate[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>符号自动补全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>毫秒级补全/ python / c系等, 编译安装, 具体自行文档</t>
   </si>
   <si>
     <r>
@@ -1001,16 +866,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要对应安装外部依赖, 例如</t>
+      <t>绑定快捷键</t>
     </r>
     <r>
       <rPr>
@@ -1019,7 +875,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>pyflakes</t>
+      <t>&lt;leader&gt;h</t>
     </r>
     <r>
       <rPr>
@@ -1028,7 +884,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>/</t>
+      <t>作为</t>
     </r>
     <r>
       <rPr>
@@ -1037,7 +893,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>pep8</t>
+      <t>toggle</t>
     </r>
     <r>
       <rPr>
@@ -1046,7 +902,458 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>/</t>
+      <t>, 进入之后</t>
+    </r>
+  </si>
+  <si>
+    <t>"let g:solarized_termcolors=256</t>
+  </si>
+  <si>
+    <t>被动技能, 在编辑输入的时候触发</t>
+  </si>
+  <si>
+    <r>
+      <t>cst</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;html&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>molokai</t>
+  </si>
+  <si>
+    <t>xml/html标签补全</t>
+  </si>
+  <si>
+    <t>ultisnips</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;html&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/html&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>expand-region[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域选中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:molokai_original = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>easy-align[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速对齐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>vim-snippets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加选中范围</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    let g:rehash256 = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a=        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对齐等号表达</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ds"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">V </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少选中范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a:        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对齐冒号表达式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(json/map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>括号补全</t>
+  </si>
+  <si>
+    <t>"Hello world!" -&gt; Hello world!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tagbar[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大纲式导航</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认左对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> quickrun[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    nmap &lt;F9&gt; :TagbarToggle&lt;CR&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a&lt;space&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首个空格对齐</t>
+    </r>
+  </si>
+  <si>
+    <t>delimimate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(ys=you surround): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ysiw"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>映射</t>
     </r>
     <r>
       <rPr>
@@ -1055,7 +1362,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>jshint</t>
+      <t>&lt;leader&gt;r</t>
     </r>
     <r>
       <rPr>
@@ -1064,62 +1371,8 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>等等</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlp[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>,a&lt;Enter&gt;*&lt;space&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:Errors </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显示错误面板</t>
-    </r>
-  </si>
-  <si>
+      <t>以及</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1127,17 +1380,175 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;-f</t>
+      <t>F10</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模糊搜索最近打开的文件</t>
-    </r>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快捷键</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    let g:tagbar_autofocus = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a2&lt;space&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第二个空格对齐</t>
+    </r>
+  </si>
+  <si>
+    <t>Hello -&gt; "Hello"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a-&lt;space&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒数第一个空格对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trailing-whitespace[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行尾空格处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nerdcommenter[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速注释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a-2&lt;space&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒数第二个空格对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>csw"</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1145,59 +1556,8 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>(MRU)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>easymotion[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速跳转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:lnext  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到下一个错误</t>
-    </r>
-  </si>
-  <si>
+      <t>绑定</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1205,28 +1565,470 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;-p</t>
+      <t>&lt;leader&gt;&lt;space&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模糊搜索当前目录及其子目录下的所有文件</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快捷键</t>
-    </r>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为快捷键, 一键去除所有行尾空格</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;leader&gt;cc   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加注释</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,a*&lt;space&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有空格依次对齐</t>
+    </r>
+  </si>
+  <si>
+    <t>closetag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;leader&gt;cu   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解开注释</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右对齐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速编码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>closetag[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对标签补全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;leader&gt;c&lt;space&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解开注释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智能判断</t>
+    </r>
+  </si>
+  <si>
+    <t>,a&lt;Enter&gt;*&lt;space&gt;</t>
+  </si>
+  <si>
+    <t>快速注释:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yss"</t>
+    </r>
+  </si>
+  <si>
+    <t>被动技能, 自动补全</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;leader&gt;cy   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以进行黏贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hello world -&gt; "Hello world"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>multiple-cursors[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多光标操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>nerdcommenter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctrlp[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rainbow_parentheses[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>括号高亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl+m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中一个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ySS"</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1234,16 +2036,36 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;w</t>
+      <t>&lt;leader&gt;-f</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(即</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模糊搜索最近打开的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(MRU)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被动(虽然支持主动触发), 可以设定括号高亮展示, 包括</t>
     </r>
     <r>
       <rPr>
@@ -1252,17 +2074,54 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)和</t>
-    </r>
+      <t>()[]{}&lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl+p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放弃一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回到上一个</t>
+    </r>
+  </si>
+  <si>
+    <t>快速编辑</t>
+  </si>
+  <si>
+    <t>Hello world -&gt;</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1270,16 +2129,143 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;b</t>
+      <t>&lt;leader&gt;-p</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(即</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模糊搜索当前目录及其子目录下的所有文件</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:rbpt_colorpairs = [</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl+x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳过当前选中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中下一个</t>
+    </r>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl + j/k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行上下选择</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['brown',       'RoyalBlue3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">esc    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退出</t>
+    </r>
+  </si>
+  <si>
+    <t>vim-surround</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    hello world</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl + x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在当前窗口水平分屏打开文件</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['Darkblue',    'SeaGreen3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中后, 可以进行增删替换</t>
     </r>
     <r>
       <rPr>
@@ -1288,7 +2274,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,b</t>
+      <t>a/c/x</t>
     </r>
     <r>
       <rPr>
@@ -1297,59 +2283,231 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:lprevious </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到上一个错误</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl + j/k </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行上下选择</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快捷键</t>
-    </r>
+      <t>等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl + v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垂直分屏</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkgray',    'DarkOrchid3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ctrl + t </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中打开</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkgreen',   'firebrick3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> vim-signature[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速标记跳转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>去空格</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两个词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>veeS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctrlp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的插件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctrlp-funky</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkcyan',    'RoyalBlue3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">m[a-zA-Z]   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打标签</t>
+    </r>
+  </si>
+  <si>
+    <t>hello world -&gt; "hello world"</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1357,7 +2515,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;s</t>
+      <t>&lt;leader&gt;fu</t>
     </r>
     <r>
       <rPr>
@@ -1366,8 +2524,45 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>(即</t>
-    </r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入当前文件的函数列表搜索</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkred',     'SeaGreen3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">'[a-zA-Z]   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转到标签位置</t>
+    </r>
+  </si>
+  <si>
+    <t>vim-trailing-whitespace</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1375,7 +2570,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,s</t>
+      <t>&lt;leader&gt;fU</t>
     </r>
     <r>
       <rPr>
@@ -1384,30 +2579,8 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>), 然后输入要搜索的字母, 这个跳转是双向的</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl + x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在当前窗口水平分屏打开文件</t>
-    </r>
-  </si>
-  <si>
+      <t> </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1415,8 +2588,367 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>快捷键:</t>
-    </r>
+      <t>搜索当前光标下单词对应的函数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkmagenta', 'DarkOrchid3'],</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前到行尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ys$"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['brown',       'firebrick3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">'.          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最后一次变更的地方</t>
+    </r>
+  </si>
+  <si>
+    <t>代码对齐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>airline[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态栏增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['gray',        'RoyalBlue3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">''          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳回来的地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最近两个位置跳转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带不带空格</t>
+    </r>
+  </si>
+  <si>
+    <t>状态栏增强, 集成支持ctrlp/nerdtree/tagbar等一些列插件features</t>
+  </si>
+  <si>
+    <t>vim-easy-align</t>
+  </si>
+  <si>
+    <t>cs([</t>
+  </si>
+  <si>
+    <t>if !exists('g:airline_symbols')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['Darkblue',    'firebrick3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">m&lt;space&gt;    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去除所有标签</t>
+    </r>
+  </si>
+  <si>
+    <t>(hello) -&gt; [ hello ]</t>
+  </si>
+  <si>
+    <t>let g:airline_symbols = {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkgreen',   'RoyalBlue3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速运行</t>
+    </r>
+  </si>
+  <si>
+    <t>endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkcyan',    'SeaGreen3'],</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>easymotion[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速跳转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>vim-quickrun</t>
+  </si>
+  <si>
+    <t>cs(]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>let g:airline_left_sep = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['darkred',     'DarkOrchid3'],</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1424,7 +2956,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
+      <t>快捷键</t>
     </r>
     <r>
       <rPr>
@@ -1433,7 +2965,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;j</t>
+      <t>&lt;leader&gt;&lt;leader&gt;w</t>
     </r>
     <r>
       <rPr>
@@ -1442,7 +2974,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
+      <t>(即</t>
     </r>
     <r>
       <rPr>
@@ -1451,7 +2983,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;k</t>
+      <t>,,w</t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +2992,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>(即</t>
+      <t>)和</t>
     </r>
     <r>
       <rPr>
@@ -1469,7 +3001,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,j</t>
+      <t>&lt;leader&gt;&lt;leader&gt;b</t>
     </r>
     <r>
       <rPr>
@@ -1478,7 +3010,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
+      <t>(即</t>
     </r>
     <r>
       <rPr>
@@ -1487,7 +3019,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,k</t>
+      <t>,,b</t>
     </r>
     <r>
       <rPr>
@@ -1500,42 +3032,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl + v </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>垂直分屏</t>
-    </r>
+    <t>(hello) -&gt; [hello]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>let g:airline_left_alt_sep = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ['red',         'firebrick3'],</t>
   </si>
   <si>
     <r>
@@ -1554,7 +3083,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;h</t>
+      <t>&lt;leader&gt;&lt;leader&gt;s</t>
     </r>
     <r>
       <rPr>
@@ -1563,7 +3092,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>和</t>
+      <t>(即</t>
     </r>
     <r>
       <rPr>
@@ -1572,7 +3101,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;&lt;leader&gt;l</t>
+      <t>,,s</t>
     </r>
     <r>
       <rPr>
@@ -1581,7 +3110,91 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>(即</t>
+      <t>), 然后输入要搜索的字母, 这个跳转是双向的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速移动</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>let g:airline_right_sep = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    \ ]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快捷键:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -1590,7 +3203,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,h</t>
+      <t>&lt;leader&gt;&lt;leader&gt;j</t>
     </r>
     <r>
       <rPr>
@@ -1608,7 +3221,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>,,l</t>
+      <t>&lt;leader&gt;&lt;leader&gt;k</t>
     </r>
     <r>
       <rPr>
@@ -1617,56 +3230,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ctrl + t </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中打开</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快捷键</t>
+      <t>(即</t>
     </r>
     <r>
       <rPr>
@@ -1675,79 +3239,17 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">&lt;leader&gt;&lt;leader&gt;.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重复上一次操作</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gundo[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时光机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的插件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ctrlp-funky</t>
-    </r>
-  </si>
-  <si>
+      <t>,,j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1755,7 +3257,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;Leader&gt;&lt;leader&gt;w/b</t>
+      <t>,,k</t>
     </r>
     <r>
       <rPr>
@@ -1764,7 +3266,39 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>走天下</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>行/位置/搜索</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>let g:airline_right_alt_sep = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>❮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
     </r>
   </si>
   <si>
@@ -1775,7 +3309,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>绑定快捷键</t>
+      <t>快捷键</t>
     </r>
     <r>
       <rPr>
@@ -1784,7 +3318,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;h</t>
+      <t>&lt;leader&gt;&lt;leader&gt;h</t>
     </r>
     <r>
       <rPr>
@@ -1793,7 +3327,7 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>作为</t>
+      <t>和</t>
     </r>
     <r>
       <rPr>
@@ -1802,7 +3336,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>toggle</t>
+      <t>&lt;leader&gt;&lt;leader&gt;l</t>
     </r>
     <r>
       <rPr>
@@ -1811,10 +3345,8 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t>, 进入之后</t>
-    </r>
-  </si>
-  <si>
+      <t>(即</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1822,7 +3354,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;fu</t>
+      <t>,,h</t>
     </r>
     <r>
       <rPr>
@@ -1831,19 +3363,8 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入当前文件的函数列表搜索</t>
-    </r>
-  </si>
-  <si>
+      <t>和</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1851,7 +3372,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;leader&gt;fU</t>
+      <t>,,l</t>
     </r>
     <r>
       <rPr>
@@ -1860,56 +3381,77 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t> </t>
-    </r>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>let g:airline_symbols.linenr = '¶'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不加入这行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防止黑色括号出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很难识别</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>搜索当前光标下单词对应的函数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tagbar[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大纲式导航</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快捷键为</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快捷键</t>
     </r>
     <r>
       <rPr>
@@ -1918,26 +3460,54 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>F9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编辑文件时按</t>
-    </r>
+      <t xml:space="preserve">&lt;leader&gt;&lt;leader&gt;.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复上一次操作</t>
+    </r>
+  </si>
+  <si>
+    <t>vim-easymotion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>let g:airline_symbols.branch = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⎇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>" \ ['black',       'SeaGreen3'],</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1945,7 +3515,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>F9</t>
+      <t>&lt;Leader&gt;&lt;leader&gt;w/b</t>
     </r>
     <r>
       <rPr>
@@ -1954,261 +3524,184 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上下移动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7F0A0C"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>jk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">)), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选中回车后会跳转</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nerdcommenter[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>快速注释</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;leader&gt;cc   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加注释</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;leader&gt;cu   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解开注释</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;leader&gt;c&lt;space&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
+      <t>走天下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是否打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tabline</t>
+    </r>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>" let g:airline#extensions#tabline#enabled = 1</t>
+  </si>
+  <si>
+    <t>let g:rbpt_max = 16</t>
+  </si>
+  <si>
+    <t>let g:rbpt_loadcmd_toggle = 0</t>
+  </si>
+  <si>
+    <t>vim-signature</t>
+  </si>
+  <si>
+    <t>au VimEnter * RainbowParenthesesToggle</t>
+  </si>
+  <si>
+    <t>au Syntax * RainbowParenthesesLoadRound</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速选中</t>
+    </r>
+  </si>
+  <si>
+    <t>au Syntax * RainbowParenthesesLoadSquare</t>
+  </si>
+  <si>
+    <t>区块</t>
+  </si>
+  <si>
+    <t>au Syntax * RainbowParenthesesLoadBraces</t>
+  </si>
+  <si>
+    <t>vim-expand-region</t>
+  </si>
+  <si>
+    <t>多标签</t>
+  </si>
+  <si>
+    <t>vim-multiple-cursors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">7: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件导航</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解开注释</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智能判断</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;leader&gt;cy   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先复制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再注解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以进行黏贴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+        <b/>
+        <sz val="24.65"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>搜索</t>
+    </r>
+  </si>
+  <si>
+    <t>目录导航</t>
+  </si>
+  <si>
+    <t>nerdtree</t>
+  </si>
+  <si>
+    <t>标签导航</t>
+  </si>
+  <si>
+    <t>tagbar</t>
+  </si>
+  <si>
+    <t>搜索文件</t>
+  </si>
+  <si>
+    <t>ctrlp.vim</t>
+  </si>
+  <si>
+    <t>搜索代码</t>
+  </si>
+  <si>
+    <t>ctrlsf.vim</t>
   </si>
 </sst>
 </file>
@@ -2217,11 +3710,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,9 +3743,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="24.65"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2263,8 +3764,59 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF3673A5"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF7F0A0C"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2274,10 +3826,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Helvetica"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2295,15 +3846,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2317,7 +3869,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2325,8 +3883,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2342,7 +3915,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2357,17 +3930,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2379,9 +3945,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2395,14 +3961,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -2410,16 +3968,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2427,6 +3978,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.65"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2439,14 +4002,27 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2459,43 +4035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,37 +4053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,49 +4077,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,13 +4119,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,13 +4167,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2664,9 +4240,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2676,6 +4254,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2710,21 +4312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2748,17 +4335,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2767,10 +4343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2779,137 +4355,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2919,29 +4495,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3287,19 +4914,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="70.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="50.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="53.2333333333333" customWidth="1"/>
+    <col min="2" max="2" width="60.5916666666667" customWidth="1"/>
     <col min="3" max="3" width="58.25" customWidth="1"/>
     <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="45.575" customWidth="1"/>
+    <col min="6" max="6" width="35.725" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4">
@@ -3668,254 +5296,778 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="37" ht="33" spans="2:5">
+      <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="38" ht="15.75" spans="2:4">
+      <c r="B38" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="39" ht="65.25" spans="1:5">
+      <c r="A39" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="E39" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="40" ht="18.75" spans="1:5">
+      <c r="A40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="B40" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="C40" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E40" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="1:3">
-      <c r="A40" s="4" t="s">
+    <row r="41" ht="18.75" spans="1:5">
+      <c r="A41" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:5">
+      <c r="A42" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="B42" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="C42" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="D42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:3">
-      <c r="A43" s="4" t="s">
+    <row r="43" ht="18.75" spans="2:5">
+      <c r="B43" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="5" t="s">
+    </row>
+    <row r="44" ht="29.25" spans="1:5">
+      <c r="A44" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" spans="1:3">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="4" t="s">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:5">
+      <c r="A45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" ht="15.75" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="E45" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="46" ht="16.5" spans="2:5">
+      <c r="B46" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="D46" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="E46" s="18" t="s">
         <v>129</v>
       </c>
+    </row>
+    <row r="47" ht="15" spans="1:5">
+      <c r="A47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" ht="15.75" spans="1:5">
+      <c r="A48" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" spans="1:3">
-      <c r="A50" s="5" t="s">
+      <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C48" s="13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:3">
-      <c r="A51" s="8" t="s">
+      <c r="E48" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="49" ht="15.75" spans="1:5">
+      <c r="A49" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C49" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="10" t="s">
+      <c r="D49" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="E49" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="7" t="s">
+    </row>
+    <row r="50" ht="15.75" spans="2:5">
+      <c r="B50" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" spans="3:3">
-      <c r="C53" s="7" t="s">
+      <c r="C50" s="13" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" ht="15" spans="3:3">
-      <c r="C54" s="3" t="s">
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:5">
+      <c r="A51" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" spans="3:3">
-      <c r="C55" s="8" t="s">
+      <c r="B51" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" ht="15" spans="3:3">
-      <c r="C56" s="3" t="s">
+      <c r="C51" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" ht="15.75" spans="3:3">
-      <c r="C57" s="4" t="s">
+      <c r="D51" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" ht="15.75" spans="3:3">
-      <c r="C58" s="4" t="s">
+      <c r="E51" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" ht="15.75" spans="3:3">
+    <row r="52" ht="18.75" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="3:5">
+      <c r="C53" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" ht="15.75" spans="1:5">
+      <c r="A54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" ht="33" spans="2:5">
+      <c r="B56" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" ht="15.75" spans="1:5">
+      <c r="A57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="3:5">
       <c r="C59" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="3:3">
-      <c r="C60" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" ht="15.75" spans="1:5">
+      <c r="A60" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="1:5">
+      <c r="A61" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="1:5">
+      <c r="A62" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:5">
+      <c r="A63" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:5">
+      <c r="A64" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" ht="15.75" spans="1:5">
+      <c r="A66" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:5">
+      <c r="A67" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:5">
+      <c r="A68" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" ht="15.75" spans="1:5">
+      <c r="A69" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="E69" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="2:5">
+      <c r="B70" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" ht="15.75" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:5">
+      <c r="A72" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:5">
+      <c r="A73" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" ht="33" spans="1:5">
+      <c r="A74" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" ht="15.75" spans="1:5">
+      <c r="A75" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:5">
+      <c r="A76" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" ht="33" spans="1:4">
+      <c r="A77" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" spans="1:4">
+      <c r="A78" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" spans="1:3">
+      <c r="A79" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" spans="1:4">
+      <c r="A80" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:3">
+      <c r="A81" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" spans="1:4">
+      <c r="A82" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="D82" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:2">
+      <c r="A83" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" spans="2:4">
+      <c r="B84" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="2:2">
+      <c r="B85" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" ht="33" spans="2:4">
+      <c r="B86" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="2:4">
+      <c r="B87" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="2:2">
+      <c r="B88" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="4:4">
+      <c r="D89" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" spans="4:4">
+      <c r="D91" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="4:4">
+      <c r="D93" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" ht="33" spans="4:4">
+      <c r="D95" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" spans="4:4">
+      <c r="D96" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="4:4">
+      <c r="D98" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" spans="4:4">
+      <c r="D100" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="4:4">
+      <c r="D102" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" spans="4:4">
+      <c r="D104" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" ht="15" spans="4:4">
+      <c r="D106" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="4:4">
+      <c r="D108" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="4:4">
+      <c r="D110" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" display="multiple-cursors[多光标操作]" tooltip="vim插件: multiple-cursors[多光标操作]"/>
-    <hyperlink ref="A35" r:id="rId2" display="easy-align[快速对齐]" tooltip="vim插件: easy-align[快速对齐]"/>
-    <hyperlink ref="C35" r:id="rId3" display="expand-region[区域选中]" tooltip="vim插件: expand-region[区域选中]"/>
-    <hyperlink ref="C38" r:id="rId4" display=" quickrun[快速执行]" tooltip="vim插件: quickrun[快速执行]"/>
-    <hyperlink ref="C40" r:id="rId5" display="trailing-whitespace[行尾空格处理]" tooltip="vim插件: trailing-whitespace[行尾空格处理]"/>
-    <hyperlink ref="C42" r:id="rId6" display="closetag[成对标签补全]" tooltip="vim插件: closetag[成对标签补全]"/>
-    <hyperlink ref="C44" r:id="rId7" display="ctrlp[文件搜索]" tooltip="vim插件: ctrlp[文件搜索]"/>
-    <hyperlink ref="C54" r:id="rId8" display="tagbar[大纲式导航]" tooltip="vim插件: tagbar[大纲式导航]"/>
-    <hyperlink ref="C56" r:id="rId9" display="nerdcommenter[快速注释]" tooltip="vim插件: nerdcommenter[快速注释]"/>
-    <hyperlink ref="B42" r:id="rId10" display=" syntastic[语法检查]" tooltip="vim插件: syntastic[语法检查]"/>
-    <hyperlink ref="A46" r:id="rId11" display="easymotion[快速跳转]" tooltip="vim插件: easymotion[快速跳转]"/>
-    <hyperlink ref="B51" r:id="rId12" display="gundo[时光机]" tooltip="vim插件: gundo[时光机]"/>
+    <hyperlink ref="C59" r:id="rId1" display="multiple-cursors[多光标操作]" tooltip="vim插件: multiple-cursors[多光标操作]"/>
+    <hyperlink ref="C47" r:id="rId2" display="easy-align[快速对齐]" tooltip="vim插件: easy-align[快速对齐]"/>
+    <hyperlink ref="A47" r:id="rId3" display="expand-region[区域选中]" tooltip="vim插件: expand-region[区域选中]"/>
+    <hyperlink ref="A51" r:id="rId4" display=" quickrun[快速执行]" tooltip="vim插件: quickrun[快速执行]"/>
+    <hyperlink ref="A54" r:id="rId5" display="trailing-whitespace[行尾空格处理]" tooltip="vim插件: trailing-whitespace[行尾空格处理]"/>
+    <hyperlink ref="A57" r:id="rId6" display="closetag[成对标签补全]" tooltip="vim插件: closetag[成对标签补全]"/>
+    <hyperlink ref="A60" r:id="rId7" display="ctrlp[文件搜索]" tooltip="vim插件: ctrlp[文件搜索]"/>
+    <hyperlink ref="B50" r:id="rId8" display="tagbar[大纲式导航]" tooltip="vim插件: tagbar[大纲式导航]"/>
+    <hyperlink ref="B54" r:id="rId9" display="nerdcommenter[快速注释]" tooltip="vim插件: nerdcommenter[快速注释]"/>
+    <hyperlink ref="C37" r:id="rId10" display=" syntastic[语法检查]" tooltip="vim插件: syntastic[语法检查]"/>
+    <hyperlink ref="C75" r:id="rId11" display="easymotion[快速跳转]" tooltip="vim插件: easymotion[快速跳转]"/>
+    <hyperlink ref="A44" r:id="rId12" display="gundo[时光机]" tooltip="vim插件: gundo[时光机]"/>
+    <hyperlink ref="A71" r:id="rId13" display="airline[状态栏增强]" tooltip="vim插件: airline[状态栏增强]"/>
+    <hyperlink ref="E37" r:id="rId14" display="surround &amp; repeat[成对符号编辑]" tooltip="vim插件: surround &amp; repeat[成对符号编辑]"/>
+    <hyperlink ref="A41" r:id="rId15" display="vim-repeat" tooltip="https://github.com/tpope/vim-repeat"/>
+    <hyperlink ref="A72" r:id="rId16" display="状态栏增强, 集成支持ctrlp/nerdtree/tagbar等一些列插件features"/>
+    <hyperlink ref="B37" r:id="rId17" display="theme[主题]" tooltip="vim插件: theme[主题]"/>
+    <hyperlink ref="B38" r:id="rId18" display="solarized" tooltip="https://github.com/altercation/vim-colors-solarized"/>
+    <hyperlink ref="B60" r:id="rId19" display="rainbow_parentheses[括号高亮]" tooltip="vim插件: rainbow_parentheses[括号高亮]"/>
+    <hyperlink ref="C44" r:id="rId20" display="delimitmate[符号自动补全]" tooltip="vim插件: delimitmate[符号自动补全]"/>
+    <hyperlink ref="C66" r:id="rId21" display=" vim-signature[快速标记跳转]" tooltip="vim插件: vim-signature[快速标记跳转]"/>
+    <hyperlink ref="D59" r:id="rId22" display="nerdcommenter" tooltip="https://github.com/scrooloose/nerdcommenter"/>
+    <hyperlink ref="D63" r:id="rId23" display="vim-surround" tooltip="https://github.com/tpope/vim-surround"/>
+    <hyperlink ref="D64" r:id="rId15" display="vim-repeat" tooltip="https://github.com/tpope/vim-repeat"/>
+    <hyperlink ref="D68" r:id="rId24" display="vim-trailing-whitespace" tooltip="https://github.com/bronson/vim-trailing-whitespace"/>
+    <hyperlink ref="D72" r:id="rId25" display="vim-easy-align" tooltip="https://github.com/junegunn/vim-easy-align"/>
+    <hyperlink ref="D75" r:id="rId26" display="vim-quickrun" tooltip="https://github.com/thinca/vim-quickrun"/>
+    <hyperlink ref="D89" r:id="rId27" display="vim-expand-region" tooltip="https://github.com/terryma/vim-expand-region"/>
+    <hyperlink ref="D93" r:id="rId28" display="vim-multiple-cursors" tooltip="https://github.com/terryma/vim-multiple-cursors"/>
+    <hyperlink ref="D80" r:id="rId29" display="vim-easymotion" tooltip="https://github.com/Lokaltog/vim-easymotion"/>
+    <hyperlink ref="D84" r:id="rId30" display="vim-signature" tooltip="https://github.com/kshenoy/vim-signature"/>
+    <hyperlink ref="D98" r:id="rId31" display="nerdtree" tooltip="https://github.com/scrooloose/nerdtree"/>
+    <hyperlink ref="D102" r:id="rId32" display="tagbar" tooltip="https://github.com/majutsushi/tagbar"/>
+    <hyperlink ref="D106" r:id="rId33" display="ctrlp.vim" tooltip="https://github.com/kien/ctrlp.vim"/>
+    <hyperlink ref="D110" r:id="rId34" display="ctrlsf.vim" tooltip="https://github.com/dyng/ctrlsf.vim"/>
+    <hyperlink ref="D38" r:id="rId35" display="syntastic" tooltip="https://github.com/scrooloose/syntastic"/>
+    <hyperlink ref="D42" r:id="rId36" display="YCM" tooltip="https://github.com/Valloric/YouCompleteMe"/>
+    <hyperlink ref="D46" r:id="rId37" display="ultisnips" tooltip="https://github.com/SirVer/ultisnips"/>
+    <hyperlink ref="D47" r:id="rId38" display="vim-snippets" tooltip="https://github.com/honza/vim-snippets"/>
+    <hyperlink ref="D51" r:id="rId39" display="delimimate" tooltip="https://github.com/Raimondi/delimitMate"/>
+    <hyperlink ref="A39" r:id="rId23" display="m-surround" tooltip="https://github.com/tpope/vim-surround"/>
+    <hyperlink ref="D55" r:id="rId40" display="closetag" tooltip="https://github.com/docunext/closetag.vim"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
